--- a/medicine/Psychotrope/Glen_Scotia/Glen_Scotia.xlsx
+++ b/medicine/Psychotrope/Glen_Scotia/Glen_Scotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glen Scotia est une distillerie de whisky située à Campbeltown, dans le Mull of Kintyre, en Écosse.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie Glen Scotia a été fondée en 1832 par la famille Galbraith qui elle-même la vend à la société "West Highland Malt Distillers" en 1919. Cette société a fait faillite en 1924 et le contrôle de la distillerie a été confié à Duncan MacCallum. Glen Scotia a été fermée en 1928 et MacCallum s'est suicidé le 23 décembre 1930 en se noyant dans le Loch de Crosshill.
 La production de whisky a repris en 1933. En 1954 la distillerie a été achetée par la société de Hiram Walker, qui l'a revendue à A. Gillies and Co. après moins d'un an. Cette dernière société a été absorbée par "Amalgamated Distillers Products" en 1970.
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Glen Scotia 10 ans
 Glen Scotia 12 ans
